--- a/biology/Médecine/Muscle_omo-hyoïdien/Muscle_omo-hyoïdien.xlsx
+++ b/biology/Médecine/Muscle_omo-hyoïdien/Muscle_omo-hyoïdien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_omo-hyo%C3%AFdien</t>
+          <t>Muscle_omo-hyoïdien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle omo-hyoïdien (Musculus omohyoideus en latin) est un muscle digastrique (il possède deux faisceaux séparés par un tendon) du cou qui relie l'os hyoïde à la scapula avec un rôle accessoire dans les mouvements de la tête et dans la phonation
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_omo-hyo%C3%AFdien</t>
+          <t>Muscle_omo-hyoïdien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Origine : il s'insère sur le bord supérieur de la scapula, en dedans de l'échancrure scapulaire, voire sur le ligament transverse supérieur de la scapula.
 Trajet : son premier ventre musculaire se dirige obliquement vers le haut, en dedans et vers l'avant, puis il forme une portion tendineuse intermédiaire, en dessous du muscle sterno-cléido-mastoïdien, au niveau du bord latéral de la gaine jugulo-carotidienne, avant de donner un deuxième ventre qui est orienté vers le haut presque à la verticale, en arrière et en dehors.
 Terminaison : il s'insère sur la partie caudale et latérale du corps de l'os hyoïde ainsi que sur une partie des grandes cornes.
-Variations : le muscle omo-hyoïdien connaît nombreuses variations. Il est décrit en effet de fréquentes insertions de son chef supérieur sur le muscle sterno-hyoÏdien[1]. Enfin, le tendon intermédiaire a des morphologies très variables. Il est même possible d'avoir une absence de tendon intermédiaire[2].</t>
+Variations : le muscle omo-hyoïdien connaît nombreuses variations. Il est décrit en effet de fréquentes insertions de son chef supérieur sur le muscle sterno-hyoÏdien. Enfin, le tendon intermédiaire a des morphologies très variables. Il est même possible d'avoir une absence de tendon intermédiaire.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_omo-hyo%C3%AFdien</t>
+          <t>Muscle_omo-hyoïdien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'innervation motrice est assuré par deux rameaux issue de la boucle de l'anse cervicale, un rameau pour chaque chef musculaire. De plus, le nerf accessoire (XI) participe à l'innervation du chef inférieur du muscle omo-hyoïdien[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'innervation motrice est assuré par deux rameaux issue de la boucle de l'anse cervicale, un rameau pour chaque chef musculaire. De plus, le nerf accessoire (XI) participe à l'innervation du chef inférieur du muscle omo-hyoïdien.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_omo-hyo%C3%AFdien</t>
+          <t>Muscle_omo-hyoïdien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ventre supérieur est vascularisé par l'artère thyroïdienne supérieure, le ventre inférieur par l'artère supra-scapulaire. Par ailleurs, la vascularisation veineuse suit la vascularisation artérielle (veine thyroïdienne supérieure et veine supra-scapulaire).
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_omo-hyo%C3%AFdien</t>
+          <t>Muscle_omo-hyoïdien</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +624,12 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il participe à la stabilisation et à la mobilisation de l'Os hyoïde et donc à la stabilisation posturale de la tête osseuse.
-Le muscle omo-hyoïdien a également un rôle phonatoire par l'abaissement de l'os hyoïde, donc du larynx, et le raccourcissement des cordes vocales (production des basses fréquences)[2].
+Le muscle omo-hyoïdien a également un rôle phonatoire par l'abaissement de l'os hyoïde, donc du larynx, et le raccourcissement des cordes vocales (production des basses fréquences).
 </t>
         </is>
       </c>
